--- a/升级更新.xlsx
+++ b/升级更新.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>ALDI Tp.net更新日志</t>
   </si>
@@ -53,18 +53,21 @@
   <si>
     <t>修复TPCS内存溢出问题</t>
   </si>
+  <si>
+    <t>静安店</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,13 +98,20 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,6 +125,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -125,51 +188,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,8 +202,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,45 +240,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,187 +261,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,11 +507,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,73 +599,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,138 +624,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1140,13 +1153,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
@@ -1154,84 +1167,156 @@
     <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
     <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="16383" width="9" style="1"/>
+    <col min="16384" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>44192</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" ht="33" customHeight="1" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44195</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" ht="35" customHeight="1" spans="1:6">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="\\shhsp005.aisino-wincor.com\PR\CustomerProjects\C60_ALDI\02_Build\16_安装包\60_服务部更新包\PATCH_V3.3.0" tooltip="\\shhsp005.aisino-wincor.com\PR\CustomerProjects\C60_ALDI\02_Build\16_安装包\60_服务部更新包\PATCH_V3.3.0"/>
+    <hyperlink ref="B10" r:id="rId1" display="\\shhsp005.aisino-wincor.com\PR\CustomerProjects\C60_ALDI\02_Build\16_安装包\60_服务部更新包\PATCH_V3.3.0" tooltip="\\shhsp005.aisino-wincor.com\PR\CustomerProjects\C60_ALDI\02_Build\16_安装包\60_服务部更新包\PATCH_V3.3.0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
